--- a/chapters/chapter5_yybb/cutflows/background-2tag.xlsx
+++ b/chapters/chapter5_yybb/cutflows/background-2tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tburch/Documents/gitDevelopment/thesis/chapters/chapter5_yybb/cutflows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92928E3B-B476-A540-9A5A-A9D96035A897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DA48D6-6253-B04C-8487-5C393E64FFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="32780" windowHeight="10280" xr2:uid="{2EE4CAEF-822A-5C47-AFFF-E917AD486867}"/>
+    <workbookView xWindow="8820" yWindow="460" windowWidth="32780" windowHeight="10280" xr2:uid="{2EE4CAEF-822A-5C47-AFFF-E917AD486867}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>Yield</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>2-tag Category</t>
+  </si>
+  <si>
+    <t>1-tag Category</t>
+  </si>
+  <si>
+    <t>Total mono-H</t>
+  </si>
+  <si>
+    <t>0-tag Category</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3137FE-AF06-F449-93C6-4CAED0BA99B5}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="A29" sqref="A29:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,10 +782,659 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B4:B12)</f>
+        <v>2.2600000000000002</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D4:D12)</f>
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F4:F12)</f>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H4:H12)</f>
+        <v>0.56199999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1.77</v>
+      </c>
+      <c r="C18">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E18">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.318</v>
+      </c>
+      <c r="I18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.158</v>
+      </c>
+      <c r="C19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.151</v>
+      </c>
+      <c r="E19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G20">
+        <v>1E-3</v>
+      </c>
+      <c r="H20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G21">
+        <v>2E-3</v>
+      </c>
+      <c r="H21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I21">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
+      <c r="E22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F22">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.109</v>
+      </c>
+      <c r="C23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>0.107</v>
+      </c>
+      <c r="E23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F23">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="C24">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="E24">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="G24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.141</v>
+      </c>
+      <c r="I24">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C25">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I25">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="C26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>-1E-3</v>
+      </c>
+      <c r="G26">
+        <v>1E-3</v>
+      </c>
+      <c r="H26">
+        <v>-1E-3</v>
+      </c>
+      <c r="I26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>61.308999999999997</v>
+      </c>
+      <c r="C32">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D32">
+        <v>59.561</v>
+      </c>
+      <c r="E32">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F32">
+        <v>9.1159999999999997</v>
+      </c>
+      <c r="G32">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H32">
+        <v>8.8490000000000002</v>
+      </c>
+      <c r="I32">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>6.9210000000000003</v>
+      </c>
+      <c r="C33">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="E33">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F33">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="G33">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="I33">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>3.7549999999999999</v>
+      </c>
+      <c r="C34">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D34">
+        <v>3.6459999999999999</v>
+      </c>
+      <c r="E34">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G34">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I34">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="C35">
+        <v>0.05</v>
+      </c>
+      <c r="D35">
+        <v>5.1029999999999998</v>
+      </c>
+      <c r="E35">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.02</v>
+      </c>
+      <c r="H35">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I35">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>5.5190000000000001</v>
+      </c>
+      <c r="C36">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D36">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="E36">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.173</v>
+      </c>
+      <c r="G36">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="I36">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>1.508</v>
+      </c>
+      <c r="C37">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="E37">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G37">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I37">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="C38">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D38">
+        <v>3.2130000000000001</v>
+      </c>
+      <c r="E38">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.137</v>
+      </c>
+      <c r="G38">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H38">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="I38">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C39">
+        <v>0.08</v>
+      </c>
+      <c r="D39">
+        <v>0.45</v>
+      </c>
+      <c r="E39">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F39">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G39">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H39">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I39">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="C40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D40">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="E40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F40">
+        <v>-1E-3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>-1E-3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
